--- a/outcome/appendix/data/forecast/Mumps.xlsx
+++ b/outcome/appendix/data/forecast/Mumps.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">流行性腮腺炎</t>
+    <t xml:space="preserve">Mumps</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>22475.1848705886</v>
+        <v>22235.6902404535</v>
       </c>
       <c r="C2" t="n">
-        <v>17752.0199125653</v>
+        <v>17384.3041638848</v>
       </c>
       <c r="D2" t="n">
-        <v>15251.7274150679</v>
+        <v>14816.1355063191</v>
       </c>
       <c r="E2" t="n">
-        <v>27198.3498286119</v>
+        <v>27087.0763170222</v>
       </c>
       <c r="F2" t="n">
-        <v>29698.6423261093</v>
+        <v>29655.2449745878</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>5316.1848705886</v>
+        <v>5076.69024045347</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13303.6226519095</v>
+        <v>13284.086530026</v>
       </c>
       <c r="C3" t="n">
-        <v>6062.62813561011</v>
+        <v>5812.22889334319</v>
       </c>
       <c r="D3" t="n">
-        <v>2229.47718186916</v>
+        <v>1856.86638591453</v>
       </c>
       <c r="E3" t="n">
-        <v>20544.6171682089</v>
+        <v>20755.9441667088</v>
       </c>
       <c r="F3" t="n">
-        <v>24377.7681219499</v>
+        <v>24711.3066741374</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5285.62265190952</v>
+        <v>5266.08653002599</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>20440.2003101735</v>
+        <v>19593.0383068332</v>
       </c>
       <c r="C4" t="n">
-        <v>12480.71166273</v>
+        <v>11222.4321725381</v>
       </c>
       <c r="D4" t="n">
-        <v>8267.21289104052</v>
+        <v>6791.30094949426</v>
       </c>
       <c r="E4" t="n">
-        <v>28399.6889576169</v>
+        <v>27963.6444411283</v>
       </c>
       <c r="F4" t="n">
-        <v>32613.1877293065</v>
+        <v>32394.7756641721</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>14412.2003101735</v>
+        <v>13565.0383068332</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>30063.3487440654</v>
+        <v>28819.1093466248</v>
       </c>
       <c r="C5" t="n">
-        <v>21898.0712535271</v>
+        <v>20256.982007363</v>
       </c>
       <c r="D5" t="n">
-        <v>17575.6344487534</v>
+        <v>15724.4655826281</v>
       </c>
       <c r="E5" t="n">
-        <v>38228.6262346038</v>
+        <v>37381.2366858866</v>
       </c>
       <c r="F5" t="n">
-        <v>42551.0630393775</v>
+        <v>41913.7531106215</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>23894.3487440654</v>
+        <v>22650.1093466248</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>38350.0721131617</v>
+        <v>36718.9654897184</v>
       </c>
       <c r="C6" t="n">
-        <v>30116.0650706324</v>
+        <v>28112.2659057721</v>
       </c>
       <c r="D6" t="n">
-        <v>25757.2450387797</v>
+        <v>23556.154359975</v>
       </c>
       <c r="E6" t="n">
-        <v>46584.0791556911</v>
+        <v>45325.6650736647</v>
       </c>
       <c r="F6" t="n">
-        <v>50942.8991875437</v>
+        <v>49881.7766194618</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>29077.0721131617</v>
+        <v>27445.9654897184</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>38599.0799037053</v>
+        <v>37315.9398914381</v>
       </c>
       <c r="C7" t="n">
-        <v>30232.2513225319</v>
+        <v>28561.3348280651</v>
       </c>
       <c r="D7" t="n">
-        <v>25803.1198153171</v>
+        <v>23926.9268509902</v>
       </c>
       <c r="E7" t="n">
-        <v>46965.9084848786</v>
+        <v>46070.5449548111</v>
       </c>
       <c r="F7" t="n">
-        <v>51395.0399920935</v>
+        <v>50704.952931886</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>26604.0799037053</v>
+        <v>25320.9398914381</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>30455.0907072349</v>
+        <v>29616.227643825</v>
       </c>
       <c r="C8" t="n">
-        <v>21722.1075399396</v>
+        <v>20422.6498424669</v>
       </c>
       <c r="D8" t="n">
-        <v>17099.1455032511</v>
+        <v>15555.8637348071</v>
       </c>
       <c r="E8" t="n">
-        <v>39188.0738745302</v>
+        <v>38809.805445183</v>
       </c>
       <c r="F8" t="n">
-        <v>43811.0359112187</v>
+        <v>43676.5915528428</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>21447.0907072349</v>
+        <v>20608.227643825</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,28 +648,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>19303.8534067671</v>
+        <v>19456.4345192794</v>
       </c>
       <c r="C9" t="n">
-        <v>10121.0711483504</v>
+        <v>9711.74421766718</v>
       </c>
       <c r="D9" t="n">
-        <v>5259.99985591766</v>
+        <v>4553.21677513785</v>
       </c>
       <c r="E9" t="n">
-        <v>28486.6356651839</v>
+        <v>29201.1248208915</v>
       </c>
       <c r="F9" t="n">
-        <v>33347.7069576166</v>
+        <v>34359.6522634209</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>10583</v>
+        <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>8720.85340676713</v>
+        <v>10448.4345192794</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>18699.874878007</v>
+        <v>18778.9446001792</v>
       </c>
       <c r="C10" t="n">
-        <v>9195.25324178504</v>
+        <v>8659.38030486335</v>
       </c>
       <c r="D10" t="n">
-        <v>4163.81047410698</v>
+        <v>3302.40655730459</v>
       </c>
       <c r="E10" t="n">
-        <v>28204.496514229</v>
+        <v>28898.5088954951</v>
       </c>
       <c r="F10" t="n">
-        <v>33235.9392819071</v>
+        <v>34255.4826430539</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>5487.87487800703</v>
+        <v>5566.94460017924</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>21173.6193362843</v>
+        <v>20662.5207557914</v>
       </c>
       <c r="C11" t="n">
-        <v>11487.4579997675</v>
+        <v>10362.3737371398</v>
       </c>
       <c r="D11" t="n">
-        <v>6359.91391979586</v>
+        <v>4909.80527028865</v>
       </c>
       <c r="E11" t="n">
-        <v>30859.7806728011</v>
+        <v>30962.667774443</v>
       </c>
       <c r="F11" t="n">
-        <v>35987.3247527727</v>
+        <v>36415.2362412942</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>8355.61933628429</v>
+        <v>7844.52075579141</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>26131.0013136804</v>
+        <v>25806.6097151579</v>
       </c>
       <c r="C12" t="n">
-        <v>16329.4255561628</v>
+        <v>15397.0955229005</v>
       </c>
       <c r="D12" t="n">
-        <v>11140.784772287</v>
+        <v>9886.63157154488</v>
       </c>
       <c r="E12" t="n">
-        <v>35932.5770711979</v>
+        <v>36216.1239074153</v>
       </c>
       <c r="F12" t="n">
-        <v>41121.2178550738</v>
+        <v>41726.5878587709</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>10920.0013136804</v>
+        <v>10595.6097151579</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27597.1437253087</v>
+        <v>27600.1427478895</v>
       </c>
       <c r="C13" t="n">
-        <v>17677.0071736914</v>
+        <v>17059.2753493717</v>
       </c>
       <c r="D13" t="n">
-        <v>12425.6040966034</v>
+        <v>11479.2772108654</v>
       </c>
       <c r="E13" t="n">
-        <v>37517.280276926</v>
+        <v>38141.0101464073</v>
       </c>
       <c r="F13" t="n">
-        <v>42768.6833540141</v>
+        <v>43721.0082849137</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16160.1437253087</v>
+        <v>16163.1427478895</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>23138.147331621</v>
+        <v>23316.6615180696</v>
       </c>
       <c r="C14" t="n">
-        <v>12468.9962055019</v>
+        <v>12194.1971179074</v>
       </c>
       <c r="D14" t="n">
-        <v>6821.08876369504</v>
+        <v>6306.3201242897</v>
       </c>
       <c r="E14" t="n">
-        <v>33807.2984577401</v>
+        <v>34439.1259182318</v>
       </c>
       <c r="F14" t="n">
-        <v>39455.2058995469</v>
+        <v>40327.0029118495</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>16060.147331621</v>
+        <v>16238.6615180696</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>13969.0758124613</v>
+        <v>14097.7543802346</v>
       </c>
       <c r="C15" t="n">
-        <v>2432.06163794254</v>
+        <v>2287.77256306521</v>
       </c>
       <c r="D15" t="n">
-        <v>-3675.26475028131</v>
+        <v>-3964.05416657048</v>
       </c>
       <c r="E15" t="n">
-        <v>25506.0899869801</v>
+        <v>25907.736197404</v>
       </c>
       <c r="F15" t="n">
-        <v>31613.416375204</v>
+        <v>32159.5629270396</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9576.07581246134</v>
+        <v>9704.75438023458</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>20213.5666223545</v>
+        <v>19618.4769345215</v>
       </c>
       <c r="C16" t="n">
-        <v>8217.01502538095</v>
+        <v>7382.26180700997</v>
       </c>
       <c r="D16" t="n">
-        <v>1866.42422020486</v>
+        <v>904.800792418493</v>
       </c>
       <c r="E16" t="n">
-        <v>32210.118219328</v>
+        <v>31854.692062033</v>
       </c>
       <c r="F16" t="n">
-        <v>38560.7090245041</v>
+        <v>38332.1530766244</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>10609.5666223545</v>
+        <v>10014.4769345215</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>29086.7127351436</v>
+        <v>28175.766570721</v>
       </c>
       <c r="C17" t="n">
-        <v>16852.6150822663</v>
+        <v>15730.6526436659</v>
       </c>
       <c r="D17" t="n">
-        <v>10376.2749910364</v>
+        <v>9142.60728449249</v>
       </c>
       <c r="E17" t="n">
-        <v>41320.8103880208</v>
+        <v>40620.8804977762</v>
       </c>
       <c r="F17" t="n">
-        <v>47797.1504792507</v>
+        <v>47208.9258569496</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>17585.7127351436</v>
+        <v>16674.766570721</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>37475.2561820226</v>
+        <v>36107.7512448666</v>
       </c>
       <c r="C18" t="n">
-        <v>25097.1732162608</v>
+        <v>23536.0928262636</v>
       </c>
       <c r="D18" t="n">
-        <v>18544.6119045664</v>
+        <v>16881.0588597413</v>
       </c>
       <c r="E18" t="n">
-        <v>49853.3391477845</v>
+        <v>48679.4096634697</v>
       </c>
       <c r="F18" t="n">
-        <v>56405.9004594788</v>
+        <v>55334.4436299919</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>25505.2561820226</v>
+        <v>24137.7512448666</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>38070.1640711502</v>
+        <v>37210.9262587478</v>
       </c>
       <c r="C19" t="n">
-        <v>25527.5864405194</v>
+        <v>24480.4430707657</v>
       </c>
       <c r="D19" t="n">
-        <v>18887.9469132418</v>
+        <v>17741.3323500279</v>
       </c>
       <c r="E19" t="n">
-        <v>50612.7417017809</v>
+        <v>49941.4094467299</v>
       </c>
       <c r="F19" t="n">
-        <v>57252.3812290586</v>
+        <v>56680.5201674676</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>26055.1640711502</v>
+        <v>25195.9262587478</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>30470.2481677761</v>
+        <v>29910.5019227703</v>
       </c>
       <c r="C20" t="n">
-        <v>17678.1418158525</v>
+        <v>16941.4868782274</v>
       </c>
       <c r="D20" t="n">
-        <v>10906.4097626302</v>
+        <v>10076.1050200906</v>
       </c>
       <c r="E20" t="n">
-        <v>43262.3545196997</v>
+        <v>42879.5169673131</v>
       </c>
       <c r="F20" t="n">
-        <v>50034.086572922</v>
+        <v>49744.8988254499</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>21103.2481677761</v>
+        <v>20543.5019227703</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>19340.6026521668</v>
+        <v>19756.9428731393</v>
       </c>
       <c r="C21" t="n">
-        <v>6270.66485116718</v>
+        <v>6520.22553033453</v>
       </c>
       <c r="D21" t="n">
-        <v>-648.142287060069</v>
+        <v>-486.869364263181</v>
       </c>
       <c r="E21" t="n">
-        <v>32410.5404531665</v>
+        <v>32993.6602159442</v>
       </c>
       <c r="F21" t="n">
-        <v>39329.3475913937</v>
+        <v>40000.7551105419</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>10987.6026521668</v>
+        <v>11403.9428731393</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>18103.9561154567</v>
+        <v>18802.8250573355</v>
       </c>
       <c r="C22" t="n">
-        <v>4804.80279904396</v>
+        <v>5347.08344233908</v>
       </c>
       <c r="D22" t="n">
-        <v>-2235.34370348471</v>
+        <v>-1775.95589828104</v>
       </c>
       <c r="E22" t="n">
-        <v>31403.1094318694</v>
+        <v>32258.5666723319</v>
       </c>
       <c r="F22" t="n">
-        <v>38443.2559343981</v>
+        <v>39381.606012952</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>5497.9561154567</v>
+        <v>6196.8250573355</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20315.1845751751</v>
+        <v>20439.6519785639</v>
       </c>
       <c r="C23" t="n">
-        <v>6850.70291669064</v>
+        <v>6831.4537465027</v>
       </c>
       <c r="D23" t="n">
-        <v>-276.963123474216</v>
+        <v>-372.291252130355</v>
       </c>
       <c r="E23" t="n">
-        <v>33779.6662336596</v>
+        <v>34047.8502106251</v>
       </c>
       <c r="F23" t="n">
-        <v>40907.3322738244</v>
+        <v>41251.5952092582</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9199.18457517512</v>
+        <v>9323.6519785639</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25055.5412569864</v>
+        <v>25565.7228666804</v>
       </c>
       <c r="C24" t="n">
-        <v>11464.3918522196</v>
+        <v>11839.4221722019</v>
       </c>
       <c r="D24" t="n">
-        <v>4269.67195759073</v>
+        <v>4573.15750649342</v>
       </c>
       <c r="E24" t="n">
-        <v>38646.6906617533</v>
+        <v>39292.0235611589</v>
       </c>
       <c r="F24" t="n">
-        <v>45841.4105563822</v>
+        <v>46558.2882268673</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13174.5412569864</v>
+        <v>13684.7228666804</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27220.8003232904</v>
+        <v>27517.2630447921</v>
       </c>
       <c r="C25" t="n">
-        <v>13509.4866503942</v>
+        <v>13672.2621602027</v>
       </c>
       <c r="D25" t="n">
-        <v>6251.15563467565</v>
+        <v>6343.16140949116</v>
       </c>
       <c r="E25" t="n">
-        <v>40932.1139961867</v>
+        <v>41362.2639293814</v>
       </c>
       <c r="F25" t="n">
-        <v>48190.4450119052</v>
+        <v>48691.364680093</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16328.8003232904</v>
+        <v>16625.2630447921</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>23217.1330256975</v>
+        <v>23385.356306105</v>
       </c>
       <c r="C26" t="n">
-        <v>9139.11215537423</v>
+        <v>9116.58619255065</v>
       </c>
       <c r="D26" t="n">
-        <v>1686.6580754279</v>
+        <v>1563.15556277116</v>
       </c>
       <c r="E26" t="n">
-        <v>37295.1538960207</v>
+        <v>37654.1264196594</v>
       </c>
       <c r="F26" t="n">
-        <v>44747.6079759671</v>
+        <v>45207.5570494389</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>16647.1330256975</v>
+        <v>16815.356306105</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>13932.7988528868</v>
+        <v>14188.8424168307</v>
       </c>
       <c r="C27" t="n">
-        <v>-557.985235058661</v>
+        <v>-566.063936079972</v>
       </c>
       <c r="D27" t="n">
-        <v>-8228.94296360411</v>
+        <v>-8376.8395459367</v>
       </c>
       <c r="E27" t="n">
-        <v>28423.5829408322</v>
+        <v>28943.7487697413</v>
       </c>
       <c r="F27" t="n">
-        <v>36094.5406693776</v>
+        <v>36754.524379598</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>9441.79885288676</v>
+        <v>9697.84241683066</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19944.2526417905</v>
+        <v>19623.2770035846</v>
       </c>
       <c r="C28" t="n">
-        <v>5193.97760982613</v>
+        <v>4554.37935143371</v>
       </c>
       <c r="D28" t="n">
-        <v>-2614.34632681604</v>
+        <v>-3422.61321183185</v>
       </c>
       <c r="E28" t="n">
-        <v>34694.5276737548</v>
+        <v>34692.1746557356</v>
       </c>
       <c r="F28" t="n">
-        <v>42502.851610397</v>
+        <v>42669.1672190011</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9943.25264179047</v>
+        <v>9622.27700358464</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>28612.3383227393</v>
+        <v>28090.3668020111</v>
       </c>
       <c r="C29" t="n">
-        <v>13698.2624912883</v>
+        <v>12850.5278835606</v>
       </c>
       <c r="D29" t="n">
-        <v>5803.22764920862</v>
+        <v>4783.04448005558</v>
       </c>
       <c r="E29" t="n">
-        <v>43526.4141541904</v>
+        <v>43330.2057204615</v>
       </c>
       <c r="F29" t="n">
-        <v>51421.4489962701</v>
+        <v>51397.6891239666</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>18644.3383227393</v>
+        <v>18122.3668020111</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>36981.7931033173</v>
+        <v>36005.1160336358</v>
       </c>
       <c r="C30" t="n">
-        <v>21950.9531933579</v>
+        <v>20651.9255426716</v>
       </c>
       <c r="D30" t="n">
-        <v>13994.1071818472</v>
+        <v>12524.4374412882</v>
       </c>
       <c r="E30" t="n">
-        <v>52012.6330132767</v>
+        <v>51358.3065246</v>
       </c>
       <c r="F30" t="n">
-        <v>59969.4790247875</v>
+        <v>59485.7946259834</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>25830.7931033173</v>
+        <v>24854.1160336358</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37741.9256703464</v>
+        <v>37157.4546262085</v>
       </c>
       <c r="C31" t="n">
-        <v>22588.6749946967</v>
+        <v>21667.6623274931</v>
       </c>
       <c r="D31" t="n">
-        <v>14567.0286381231</v>
+        <v>13467.8615971627</v>
       </c>
       <c r="E31" t="n">
-        <v>52895.1763459962</v>
+        <v>52647.246924924</v>
       </c>
       <c r="F31" t="n">
-        <v>60916.8227025698</v>
+        <v>60847.0476552544</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25796.9256703464</v>
+        <v>25212.4546262085</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>30285.3585249052</v>
+        <v>29912.8701634617</v>
       </c>
       <c r="C32" t="n">
-        <v>14975.8495531061</v>
+        <v>14232.1391812677</v>
       </c>
       <c r="D32" t="n">
-        <v>6871.4850511774</v>
+        <v>5931.26161749477</v>
       </c>
       <c r="E32" t="n">
-        <v>45594.8674967043</v>
+        <v>45593.6011456557</v>
       </c>
       <c r="F32" t="n">
-        <v>53699.231998633</v>
+        <v>53894.4787094286</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>20894.3585249052</v>
+        <v>20521.8701634617</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>19181.3323993489</v>
+        <v>19774.2536658975</v>
       </c>
       <c r="C33" t="n">
-        <v>3706.92142216935</v>
+        <v>3885.28680771852</v>
       </c>
       <c r="D33" t="n">
-        <v>-4484.73692838399</v>
+        <v>-4525.82417010239</v>
       </c>
       <c r="E33" t="n">
-        <v>34655.7433765284</v>
+        <v>35663.2205240764</v>
       </c>
       <c r="F33" t="n">
-        <v>42847.4017270817</v>
+        <v>44074.3315018974</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>10709.3323993489</v>
+        <v>11302.2536658975</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>17887.3656813422</v>
+        <v>18794.6445779451</v>
       </c>
       <c r="C34" t="n">
-        <v>2271.40131131522</v>
+        <v>2732.70300931427</v>
       </c>
       <c r="D34" t="n">
-        <v>-5995.19087899967</v>
+        <v>-5769.97524905757</v>
       </c>
       <c r="E34" t="n">
-        <v>33503.3300513692</v>
+        <v>34856.586146576</v>
       </c>
       <c r="F34" t="n">
-        <v>41769.9222416841</v>
+        <v>43359.2644049478</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>6846.36568134222</v>
+        <v>7753.64457794513</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>20032.877737876</v>
+        <v>20399.4119700187</v>
       </c>
       <c r="C35" t="n">
-        <v>4305.8946246408</v>
+        <v>4211.65825867951</v>
       </c>
       <c r="D35" t="n">
-        <v>-4019.46733831426</v>
+        <v>-4357.62092498364</v>
       </c>
       <c r="E35" t="n">
-        <v>35759.8608511112</v>
+        <v>36587.165681358</v>
       </c>
       <c r="F35" t="n">
-        <v>44085.2228140663</v>
+        <v>45156.4448650211</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>10495.877737876</v>
+        <v>10862.4119700187</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>24762.1532880975</v>
+        <v>25516.0958533564</v>
       </c>
       <c r="C36" t="n">
-        <v>8944.32543847288</v>
+        <v>9227.28495968774</v>
       </c>
       <c r="D36" t="n">
-        <v>570.873176989135</v>
+        <v>604.509335175702</v>
       </c>
       <c r="E36" t="n">
-        <v>40579.9811377221</v>
+        <v>41804.906747025</v>
       </c>
       <c r="F36" t="n">
-        <v>48953.4333992058</v>
+        <v>50427.682371537</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16060.1532880975</v>
+        <v>16814.0958533564</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>26970.263024522</v>
+        <v>27482.6439908659</v>
       </c>
       <c r="C37" t="n">
-        <v>11067.1771902136</v>
+        <v>11092.787206825</v>
       </c>
       <c r="D37" t="n">
-        <v>2648.59207790824</v>
+        <v>2416.52111906515</v>
       </c>
       <c r="E37" t="n">
-        <v>42873.3488588303</v>
+        <v>43872.5007749069</v>
       </c>
       <c r="F37" t="n">
-        <v>51291.9339711357</v>
+        <v>52548.7668626667</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23131.263024522</v>
+        <v>23643.6439908659</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>23016.9800002865</v>
+        <v>23371.0828047028</v>
       </c>
       <c r="C38" t="n">
-        <v>6838.66281987569</v>
+        <v>6625.7690094921</v>
       </c>
       <c r="D38" t="n">
-        <v>-1725.62096606319</v>
+        <v>-2238.66465363502</v>
       </c>
       <c r="E38" t="n">
-        <v>39195.2971806974</v>
+        <v>40116.3965999135</v>
       </c>
       <c r="F38" t="n">
-        <v>47759.5809666363</v>
+        <v>48980.8302630406</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>20646.9800002865</v>
+        <v>21001.0828047028</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>13755.283201991</v>
+        <v>14182.3995138214</v>
       </c>
       <c r="C39" t="n">
-        <v>-2732.59090041981</v>
+        <v>-2970.62015891346</v>
       </c>
       <c r="D39" t="n">
-        <v>-11460.7442222533</v>
+        <v>-12050.8802765089</v>
       </c>
       <c r="E39" t="n">
-        <v>30243.1573044017</v>
+        <v>31335.4191865563</v>
       </c>
       <c r="F39" t="n">
-        <v>38971.3106262352</v>
+        <v>40415.6793041517</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>9207.28320199095</v>
+        <v>9634.3995138214</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>19759.6650692014</v>
+        <v>19609.9629092656</v>
       </c>
       <c r="C40" t="n">
-        <v>3081.42146160424</v>
+        <v>2192.25378798914</v>
       </c>
       <c r="D40" t="n">
-        <v>-5747.50738888425</v>
+        <v>-7028.12445976626</v>
       </c>
       <c r="E40" t="n">
-        <v>36437.9086767985</v>
+        <v>37027.672030542</v>
       </c>
       <c r="F40" t="n">
-        <v>45266.837527287</v>
+        <v>46248.0502782974</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,9 +1661,297 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>12460.6650692014</v>
+        <v>12310.9629092656</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>28066.1246754006</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10502.6741779049</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1205.14510590885</v>
+      </c>
+      <c r="E41" t="n">
+        <v>45629.5751728963</v>
+      </c>
+      <c r="F41" t="n">
+        <v>54927.1042448924</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7028</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21038.1246754006</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>35976.7227955066</v>
+      </c>
+      <c r="C42" t="n">
+        <v>18315.4059977349</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8966.06963581517</v>
+      </c>
+      <c r="E42" t="n">
+        <v>53638.0395932783</v>
+      </c>
+      <c r="F42" t="n">
+        <v>62987.3759551981</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8930</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27046.7227955066</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37133.6625718747</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19354.1324095194</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9942.21767246369</v>
+      </c>
+      <c r="E43" t="n">
+        <v>54913.1927342299</v>
+      </c>
+      <c r="F43" t="n">
+        <v>64325.1074712856</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10710</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26423.6625718747</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>29896.5387429956</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11952.3831399034</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2453.32095870174</v>
+      </c>
+      <c r="E44" t="n">
+        <v>47840.6943460878</v>
+      </c>
+      <c r="F44" t="n">
+        <v>57339.7565272895</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9280</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20616.5387429956</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19761.7080608215</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1638.33492359864</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-7955.59928938461</v>
+      </c>
+      <c r="E45" t="n">
+        <v>37885.0811980444</v>
+      </c>
+      <c r="F45" t="n">
+        <v>47479.0154110277</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7919</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11842.7080608215</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>18780.6485518496</v>
+      </c>
+      <c r="C46" t="n">
+        <v>508.13924565976</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-9164.74288629042</v>
+      </c>
+      <c r="E46" t="n">
+        <v>37053.1578580394</v>
+      </c>
+      <c r="F46" t="n">
+        <v>46726.0399899896</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10867</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7913.64855184957</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20381.9612848649</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2000.43946461543</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-7730.15040641628</v>
+      </c>
+      <c r="E47" t="n">
+        <v>38763.4831051143</v>
+      </c>
+      <c r="F47" t="n">
+        <v>48494.072976146</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8287</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12094.9612848649</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25497.107038404</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7027.53162495204</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-2749.67100265678</v>
+      </c>
+      <c r="E48" t="n">
+        <v>43966.6824518559</v>
+      </c>
+      <c r="F48" t="n">
+        <v>53743.8850794647</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7642</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17855.107038404</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>27465.1850203713</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8907.35947103484</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-916.559956562138</v>
+      </c>
+      <c r="E49" t="n">
+        <v>46023.0105697077</v>
+      </c>
+      <c r="F49" t="n">
+        <v>55846.9299973046</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7092</v>
+      </c>
+      <c r="I49" t="n">
+        <v>20373.1850203713</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>
